--- a/files/E-Court.xlsx
+++ b/files/E-Court.xlsx
@@ -368,25 +368,25 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>tante erni</v>
+        <v>Abdul</v>
       </c>
       <c r="B2" t="str">
-        <v>1563451</v>
+        <v>9273423</v>
       </c>
       <c r="C2" t="str">
-        <v>wanita</v>
+        <v>Laki-laki</v>
       </c>
       <c r="D2" t="str">
-        <v>jl.mantapp</v>
+        <v>jl.pondok raya</v>
       </c>
       <c r="E2" t="str">
-        <v>ernie@gmail.com</v>
+        <v>abdul@mail.com</v>
       </c>
       <c r="F2" t="str">
         <v>+62 092093 12313</v>
       </c>
       <c r="G2" t="str">
-        <v>2021-06-07T00:00:00Z</v>
+        <v>2021-06-15T00:00:00Z</v>
       </c>
       <c r="H2" t="str">
         <v>E-Court</v>
@@ -409,25 +409,25 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>jamileh</v>
+        <v>Yusuf</v>
       </c>
       <c r="B3" t="str">
-        <v>983414</v>
+        <v>1093823</v>
       </c>
       <c r="C3" t="str">
-        <v>wanita</v>
+        <v>Laki-laki</v>
       </c>
       <c r="D3" t="str">
-        <v>jl.sempit</v>
+        <v>jl.sempit raya</v>
       </c>
       <c r="E3" t="str">
-        <v>jamileh@gmail.com</v>
+        <v>yusuf@mail.com</v>
       </c>
       <c r="F3" t="str">
         <v>+62 092093 12313</v>
       </c>
       <c r="G3" t="str">
-        <v>2021-06-07T00:00:00Z</v>
+        <v>2021-06-15T00:00:00Z</v>
       </c>
       <c r="H3" t="str">
         <v>E-Court</v>
@@ -450,25 +450,25 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>boy</v>
+        <v>Fani</v>
       </c>
       <c r="B4" t="str">
-        <v>983414</v>
+        <v>6123712</v>
       </c>
       <c r="C4" t="str">
-        <v>laki-laki</v>
+        <v>Perempuan</v>
       </c>
       <c r="D4" t="str">
-        <v>jl.gunuk</v>
+        <v>jl.kuning raya</v>
       </c>
       <c r="E4" t="str">
-        <v>boy@gmail.com</v>
+        <v>fani@mail.com</v>
       </c>
       <c r="F4" t="str">
         <v>+62 092093 12313</v>
       </c>
       <c r="G4" t="str">
-        <v>2021-06-07T00:00:00Z</v>
+        <v>2021-06-15T00:00:00Z</v>
       </c>
       <c r="H4" t="str">
         <v>E-Court</v>
@@ -491,25 +491,25 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>samuel</v>
+        <v>alice</v>
       </c>
       <c r="B5" t="str">
-        <v>9123771</v>
+        <v>87298412</v>
       </c>
       <c r="C5" t="str">
-        <v>laki-laki</v>
+        <v>Perempuan</v>
       </c>
       <c r="D5" t="str">
-        <v>jl.madrasah</v>
+        <v>jl.jaidi raya</v>
       </c>
       <c r="E5" t="str">
-        <v>samuel@gmail.com</v>
+        <v>alice@mail.com</v>
       </c>
       <c r="F5" t="str">
         <v>+62 092093 12313</v>
       </c>
       <c r="G5" t="str">
-        <v>2021-06-07T00:00:00Z</v>
+        <v>2021-06-15T00:00:00Z</v>
       </c>
       <c r="H5" t="str">
         <v>E-Court</v>
@@ -532,25 +532,25 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>joko</v>
+        <v>ayu</v>
       </c>
       <c r="B6" t="str">
-        <v>623412</v>
+        <v>9823741</v>
       </c>
       <c r="C6" t="str">
-        <v>laki</v>
+        <v>Perempuan</v>
       </c>
       <c r="D6" t="str">
-        <v>jl.masjid</v>
+        <v>jl.manggis raya</v>
       </c>
       <c r="E6" t="str">
-        <v>joko@mail.com</v>
+        <v>ayu@mail.com</v>
       </c>
       <c r="F6" t="str">
         <v>+62 092093 12313</v>
       </c>
       <c r="G6" t="str">
-        <v>2021-06-07T00:00:00Z</v>
+        <v>2021-06-15T00:00:00Z</v>
       </c>
       <c r="H6" t="str">
         <v>E-Court</v>
@@ -573,125 +573,1355 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>andi</v>
+        <v>alfi</v>
       </c>
       <c r="B7" t="str">
-        <v>6233424</v>
+        <v>9834523</v>
       </c>
       <c r="C7" t="str">
         <v>laki-laki</v>
       </c>
       <c r="D7" t="str">
-        <v>jl.masjid</v>
+        <v>jl.senggol raya</v>
       </c>
       <c r="E7" t="str">
-        <v>andi@mail.com</v>
+        <v>alfi@mail.com</v>
       </c>
       <c r="F7" t="str">
         <v>+62 092093 12313</v>
       </c>
       <c r="G7" t="str">
-        <v>2021-06-07T00:00:00Z</v>
+        <v>2021-06-15T00:00:00Z</v>
       </c>
       <c r="H7" t="str">
-        <v>E-Court</v>
+        <v>Kepaniteraan Hukum</v>
       </c>
       <c r="I7" t="str">
         <v>09:00 - 10:00</v>
       </c>
       <c r="J7" t="str">
-        <v>Done</v>
+        <v>Waiting</v>
       </c>
       <c r="K7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" t="str">
-        <v>0000-01-01 09:40:00 +0000 UTC</v>
+        <v>&lt;nil&gt;</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>cupita</v>
+        <v>sugi</v>
       </c>
       <c r="B8" t="str">
-        <v>8273412</v>
+        <v>1645634</v>
       </c>
       <c r="C8" t="str">
         <v>perempuan</v>
       </c>
       <c r="D8" t="str">
-        <v>jl.masjid</v>
+        <v>jl.limo raya</v>
       </c>
       <c r="E8" t="str">
-        <v>cupita@mail.com</v>
+        <v>sugi@mail.com</v>
       </c>
       <c r="F8" t="str">
         <v>+62 092093 12313</v>
       </c>
       <c r="G8" t="str">
-        <v>2021-06-07T00:00:00Z</v>
+        <v>2021-06-15T00:00:00Z</v>
       </c>
       <c r="H8" t="str">
-        <v>E-Court</v>
+        <v>Kepaniteraan Hukum</v>
       </c>
       <c r="I8" t="str">
         <v>09:00 - 10:00</v>
       </c>
       <c r="J8" t="str">
-        <v>On Progress</v>
+        <v>Waiting</v>
       </c>
       <c r="K8">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="str">
-        <v>0000-01-01 09:44:00 +0000 UTC</v>
+        <v>&lt;nil&gt;</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>kamal</v>
+        <v>mamat</v>
       </c>
       <c r="B9" t="str">
-        <v>8273412</v>
+        <v>647352</v>
       </c>
       <c r="C9" t="str">
-        <v>laki-laki</v>
+        <v>perempuan</v>
       </c>
       <c r="D9" t="str">
-        <v>jl.masjid</v>
+        <v>jl.limo raya</v>
       </c>
       <c r="E9" t="str">
-        <v>kamal@mail.com</v>
+        <v>mamat@mail.com</v>
       </c>
       <c r="F9" t="str">
         <v>+62 092093 12313</v>
       </c>
       <c r="G9" t="str">
-        <v>2021-06-07T00:00:00Z</v>
+        <v>2021-06-15T00:00:00Z</v>
       </c>
       <c r="H9" t="str">
-        <v>E-Court</v>
+        <v>Kepaniteraan Hukum</v>
       </c>
       <c r="I9" t="str">
         <v>09:00 - 10:00</v>
       </c>
       <c r="J9" t="str">
+        <v>Waiting</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="str">
+        <v>&lt;nil&gt;</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>memet</v>
+      </c>
+      <c r="B10" t="str">
+        <v>5234623</v>
+      </c>
+      <c r="C10" t="str">
+        <v>perempuan</v>
+      </c>
+      <c r="D10" t="str">
+        <v>jl.kambing raya</v>
+      </c>
+      <c r="E10" t="str">
+        <v>memet@mail.com</v>
+      </c>
+      <c r="F10" t="str">
+        <v>+62 092093 12313</v>
+      </c>
+      <c r="G10" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Kepaniteraan Hukum</v>
+      </c>
+      <c r="I10" t="str">
+        <v>09:00 - 10:00</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Waiting</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="str">
+        <v>&lt;nil&gt;</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>nani</v>
+      </c>
+      <c r="B11" t="str">
+        <v>5234623</v>
+      </c>
+      <c r="C11" t="str">
+        <v>perempuan</v>
+      </c>
+      <c r="D11" t="str">
+        <v>jl.cabe raya</v>
+      </c>
+      <c r="E11" t="str">
+        <v>nani@mail.com</v>
+      </c>
+      <c r="F11" t="str">
+        <v>+62 092093 12313</v>
+      </c>
+      <c r="G11" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Kepaniteraan Hukum</v>
+      </c>
+      <c r="I11" t="str">
+        <v>09:00 - 10:00</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Waiting</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="str">
+        <v>&lt;nil&gt;</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>hindun</v>
+      </c>
+      <c r="B12" t="str">
+        <v>9823741</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Perempuan</v>
+      </c>
+      <c r="D12" t="str">
+        <v>jl.jeruk raya</v>
+      </c>
+      <c r="E12" t="str">
+        <v>hindun@mail.com</v>
+      </c>
+      <c r="F12" t="str">
+        <v>+62 092093 12313</v>
+      </c>
+      <c r="G12" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H12" t="str">
+        <v>E-Court</v>
+      </c>
+      <c r="I12" t="str">
+        <v>09:00 - 10:00</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Waiting</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="str">
+        <v>&lt;nil&gt;</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>hani</v>
+      </c>
+      <c r="B13" t="str">
+        <v>910238</v>
+      </c>
+      <c r="C13" t="str">
+        <v>perempuan</v>
+      </c>
+      <c r="D13" t="str">
+        <v>bogor</v>
+      </c>
+      <c r="E13" t="str">
+        <v>hani@mail.com</v>
+      </c>
+      <c r="F13" t="str">
+        <v>0812361231</v>
+      </c>
+      <c r="G13" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H13" t="str">
+        <v>E-Court</v>
+      </c>
+      <c r="I13" t="str">
+        <v>09:00 - 10:00</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Waiting</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="str">
+        <v>&lt;nil&gt;</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>gina</v>
+      </c>
+      <c r="B14" t="str">
+        <v>912398</v>
+      </c>
+      <c r="C14" t="str">
+        <v>perempuan</v>
+      </c>
+      <c r="D14" t="str">
+        <v>depok</v>
+      </c>
+      <c r="E14" t="str">
+        <v>gina@mail.com</v>
+      </c>
+      <c r="F14" t="str">
+        <v>09123181323</v>
+      </c>
+      <c r="G14" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H14" t="str">
+        <v>E-Court</v>
+      </c>
+      <c r="I14" t="str">
+        <v>09:00 - 10:00</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Waiting</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="str">
+        <v>&lt;nil&gt;</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>joni</v>
+      </c>
+      <c r="B15" t="str">
+        <v>34231231</v>
+      </c>
+      <c r="C15" t="str">
+        <v>laki-laki</v>
+      </c>
+      <c r="D15" t="str">
+        <v>jakarta</v>
+      </c>
+      <c r="E15" t="str">
+        <v>joni@mail.com</v>
+      </c>
+      <c r="F15" t="str">
+        <v>09123123</v>
+      </c>
+      <c r="G15" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H15" t="str">
+        <v>E-Court</v>
+      </c>
+      <c r="I15" t="str">
+        <v>09:00 - 10:00</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Waiting</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="str">
+        <v>&lt;nil&gt;</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>toni</v>
+      </c>
+      <c r="B16" t="str">
+        <v>9123412</v>
+      </c>
+      <c r="C16" t="str">
+        <v>laki-laki</v>
+      </c>
+      <c r="D16" t="str">
+        <v>jakarta</v>
+      </c>
+      <c r="E16" t="str">
+        <v>toni@mail.com</v>
+      </c>
+      <c r="F16" t="str">
+        <v>0812376123</v>
+      </c>
+      <c r="G16" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H16" t="str">
+        <v>E-Court</v>
+      </c>
+      <c r="I16" t="str">
+        <v>09:00 - 10:00</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Waiting</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="str">
+        <v>&lt;nil&gt;</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>ifan</v>
+      </c>
+      <c r="B17" t="str">
+        <v>32183911</v>
+      </c>
+      <c r="C17" t="str">
+        <v>laki-laki</v>
+      </c>
+      <c r="D17" t="str">
+        <v>jakarta</v>
+      </c>
+      <c r="E17" t="str">
+        <v>ifan@mail.com</v>
+      </c>
+      <c r="F17" t="str">
+        <v>08123123123</v>
+      </c>
+      <c r="G17" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H17" t="str">
+        <v>E-Court</v>
+      </c>
+      <c r="I17" t="str">
+        <v>10:00 - 11:00</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Waiting</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="str">
+        <v>&lt;nil&gt;</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>maimunah</v>
+      </c>
+      <c r="B18" t="str">
+        <v>3981231</v>
+      </c>
+      <c r="C18" t="str">
+        <v>perempuan</v>
+      </c>
+      <c r="D18" t="str">
+        <v>jakarta</v>
+      </c>
+      <c r="E18" t="str">
+        <v>maimun@mail.com</v>
+      </c>
+      <c r="F18" t="str">
+        <v>081231231</v>
+      </c>
+      <c r="G18" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H18" t="str">
+        <v>E-Court</v>
+      </c>
+      <c r="I18" t="str">
+        <v>10:00 - 11:00</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Waiting</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="str">
+        <v>&lt;nil&gt;</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>cici</v>
+      </c>
+      <c r="B19" t="str">
+        <v>18031</v>
+      </c>
+      <c r="C19" t="str">
+        <v>perempuan</v>
+      </c>
+      <c r="D19" t="str">
+        <v>jakarta</v>
+      </c>
+      <c r="E19" t="str">
+        <v>cici@mail.com</v>
+      </c>
+      <c r="F19" t="str">
+        <v>08121212</v>
+      </c>
+      <c r="G19" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H19" t="str">
+        <v>E-Court</v>
+      </c>
+      <c r="I19" t="str">
+        <v>10:00 - 11:00</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Waiting</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="str">
+        <v>&lt;nil&gt;</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>desi</v>
+      </c>
+      <c r="B20" t="str">
+        <v>716312</v>
+      </c>
+      <c r="C20" t="str">
+        <v>perempuan</v>
+      </c>
+      <c r="D20" t="str">
+        <v>jakarta</v>
+      </c>
+      <c r="E20" t="str">
+        <v>desi@mail.com</v>
+      </c>
+      <c r="F20" t="str">
+        <v>08121212</v>
+      </c>
+      <c r="G20" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H20" t="str">
+        <v>E-Court</v>
+      </c>
+      <c r="I20" t="str">
+        <v>10:00 - 11:00</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Waiting</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="str">
+        <v>&lt;nil&gt;</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>loli</v>
+      </c>
+      <c r="B21" t="str">
+        <v>412313</v>
+      </c>
+      <c r="C21" t="str">
+        <v>perempuan</v>
+      </c>
+      <c r="D21" t="str">
+        <v>jakarta</v>
+      </c>
+      <c r="E21" t="str">
+        <v>loli@mail.com</v>
+      </c>
+      <c r="F21" t="str">
+        <v>08121212</v>
+      </c>
+      <c r="G21" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H21" t="str">
+        <v>E-Court</v>
+      </c>
+      <c r="I21" t="str">
+        <v>10:00 - 11:00</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Waiting</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="str">
+        <v>&lt;nil&gt;</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>emen</v>
+      </c>
+      <c r="B22" t="str">
+        <v>34523</v>
+      </c>
+      <c r="C22" t="str">
+        <v>laki-laki</v>
+      </c>
+      <c r="D22" t="str">
+        <v>pejaten</v>
+      </c>
+      <c r="E22" t="str">
+        <v>emen@mail.com</v>
+      </c>
+      <c r="F22" t="str">
+        <v>9812312</v>
+      </c>
+      <c r="G22" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H22" t="str">
+        <v>E-Court</v>
+      </c>
+      <c r="I22" t="str">
+        <v>11:00 - 12:00</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Waiting</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="str">
+        <v>&lt;nil&gt;</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>roni</v>
+      </c>
+      <c r="B23" t="str">
+        <v>12413</v>
+      </c>
+      <c r="C23" t="str">
+        <v>laki-laki</v>
+      </c>
+      <c r="D23" t="str">
+        <v>pasar minggu</v>
+      </c>
+      <c r="E23" t="str">
+        <v>roni@mail.com</v>
+      </c>
+      <c r="F23" t="str">
+        <v>9812312</v>
+      </c>
+      <c r="G23" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H23" t="str">
+        <v>E-Court</v>
+      </c>
+      <c r="I23" t="str">
+        <v>11:00 - 12:00</v>
+      </c>
+      <c r="J23" t="str">
         <v>Done</v>
       </c>
-      <c r="K9">
-        <v>42</v>
-      </c>
-      <c r="L9">
+      <c r="K23">
+        <v>80</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="str">
+        <v>0000-01-01 12:20:00 +0000 UTC</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>rusdi</v>
+      </c>
+      <c r="B24" t="str">
+        <v>18123</v>
+      </c>
+      <c r="C24" t="str">
+        <v>laki-laki</v>
+      </c>
+      <c r="D24" t="str">
+        <v>jakarta</v>
+      </c>
+      <c r="E24" t="str">
+        <v>rusdi@mail.com</v>
+      </c>
+      <c r="F24" t="str">
+        <v>0123812</v>
+      </c>
+      <c r="G24" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H24" t="str">
+        <v>E-Court</v>
+      </c>
+      <c r="I24" t="str">
+        <v>11:00 - 12:00</v>
+      </c>
+      <c r="J24" t="str">
+        <v>Done</v>
+      </c>
+      <c r="K24">
+        <v>48</v>
+      </c>
+      <c r="L24">
         <v>2</v>
       </c>
-      <c r="M9" t="str">
-        <v>0000-01-01 09:42:00 +0000 UTC</v>
+      <c r="M24" t="str">
+        <v>0000-01-01 11:48:00 +0000 UTC</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>xavi</v>
+      </c>
+      <c r="B25" t="str">
+        <v>12413</v>
+      </c>
+      <c r="C25" t="str">
+        <v>laki-laki</v>
+      </c>
+      <c r="D25" t="str">
+        <v>jakarta</v>
+      </c>
+      <c r="E25" t="str">
+        <v>xavi@mail.com</v>
+      </c>
+      <c r="F25" t="str">
+        <v>9812312</v>
+      </c>
+      <c r="G25" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H25" t="str">
+        <v>E-Court</v>
+      </c>
+      <c r="I25" t="str">
+        <v>11:00 - 12:00</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Done</v>
+      </c>
+      <c r="K25">
+        <v>50</v>
+      </c>
+      <c r="L25">
+        <v>30</v>
+      </c>
+      <c r="M25" t="str">
+        <v>0000-01-01 11:50:00 +0000 UTC</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>andi</v>
+      </c>
+      <c r="B26" t="str">
+        <v>352432</v>
+      </c>
+      <c r="C26" t="str">
+        <v>laki-laki</v>
+      </c>
+      <c r="D26" t="str">
+        <v>ragunan</v>
+      </c>
+      <c r="E26" t="str">
+        <v>andi@mail.com</v>
+      </c>
+      <c r="F26" t="str">
+        <v>34355</v>
+      </c>
+      <c r="G26" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H26" t="str">
+        <v>E-Court</v>
+      </c>
+      <c r="I26" t="str">
+        <v>13:00 - 14:00</v>
+      </c>
+      <c r="J26" t="str">
+        <v>Waiting</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="str">
+        <v>&lt;nil&gt;</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>bobon</v>
+      </c>
+      <c r="B27" t="str">
+        <v>410231</v>
+      </c>
+      <c r="C27" t="str">
+        <v>laki-laki</v>
+      </c>
+      <c r="D27" t="str">
+        <v>kemang</v>
+      </c>
+      <c r="E27" t="str">
+        <v>bobon@mail.com</v>
+      </c>
+      <c r="F27" t="str">
+        <v>34355</v>
+      </c>
+      <c r="G27" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H27" t="str">
+        <v>E-Court</v>
+      </c>
+      <c r="I27" t="str">
+        <v>13:00 - 14:00</v>
+      </c>
+      <c r="J27" t="str">
+        <v>Waiting</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="str">
+        <v>&lt;nil&gt;</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>rizki</v>
+      </c>
+      <c r="B28" t="str">
+        <v>3452234</v>
+      </c>
+      <c r="C28" t="str">
+        <v>laki-laki</v>
+      </c>
+      <c r="D28" t="str">
+        <v>ragunan</v>
+      </c>
+      <c r="E28" t="str">
+        <v>rizki@mail.com</v>
+      </c>
+      <c r="F28" t="str">
+        <v>4534</v>
+      </c>
+      <c r="G28" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H28" t="str">
+        <v>E-Court</v>
+      </c>
+      <c r="I28" t="str">
+        <v>13:00 - 14:00</v>
+      </c>
+      <c r="J28" t="str">
+        <v>Waiting</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="str">
+        <v>&lt;nil&gt;</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>wawan</v>
+      </c>
+      <c r="B29" t="str">
+        <v>65463</v>
+      </c>
+      <c r="C29" t="str">
+        <v>laki-laki</v>
+      </c>
+      <c r="D29" t="str">
+        <v>ragunan</v>
+      </c>
+      <c r="E29" t="str">
+        <v>wawan@mail.com</v>
+      </c>
+      <c r="F29" t="str">
+        <v>23434</v>
+      </c>
+      <c r="G29" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H29" t="str">
+        <v>E-Court</v>
+      </c>
+      <c r="I29" t="str">
+        <v>13:00 - 14:00</v>
+      </c>
+      <c r="J29" t="str">
+        <v>Waiting</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" t="str">
+        <v>&lt;nil&gt;</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>adam</v>
+      </c>
+      <c r="B30" t="str">
+        <v>12341</v>
+      </c>
+      <c r="C30" t="str">
+        <v>laki-laki</v>
+      </c>
+      <c r="D30" t="str">
+        <v>ragunan</v>
+      </c>
+      <c r="E30" t="str">
+        <v>adam@mail.com</v>
+      </c>
+      <c r="F30" t="str">
+        <v>9812312</v>
+      </c>
+      <c r="G30" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H30" t="str">
+        <v>E-Court</v>
+      </c>
+      <c r="I30" t="str">
+        <v>13:00 - 14:00</v>
+      </c>
+      <c r="J30" t="str">
+        <v>On Progress</v>
+      </c>
+      <c r="K30">
+        <v>47</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="str">
+        <v>0000-01-01 13:47:00 +0000 UTC</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>rani</v>
+      </c>
+      <c r="B31" t="str">
+        <v>726342</v>
+      </c>
+      <c r="C31" t="str">
+        <v>perempuan</v>
+      </c>
+      <c r="D31" t="str">
+        <v>mampang</v>
+      </c>
+      <c r="E31" t="str">
+        <v>rani@mail.com</v>
+      </c>
+      <c r="F31" t="str">
+        <v>8973423</v>
+      </c>
+      <c r="G31" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H31" t="str">
+        <v>E-Court</v>
+      </c>
+      <c r="I31" t="str">
+        <v>14:00 - 15:00</v>
+      </c>
+      <c r="J31" t="str">
+        <v>Waiting</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="str">
+        <v>&lt;nil&gt;</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>susi</v>
+      </c>
+      <c r="B32" t="str">
+        <v>876322</v>
+      </c>
+      <c r="C32" t="str">
+        <v>perempuan</v>
+      </c>
+      <c r="D32" t="str">
+        <v>kuningan</v>
+      </c>
+      <c r="E32" t="str">
+        <v>susi@mail.com</v>
+      </c>
+      <c r="F32" t="str">
+        <v>2734234</v>
+      </c>
+      <c r="G32" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H32" t="str">
+        <v>E-Court</v>
+      </c>
+      <c r="I32" t="str">
+        <v>14:00 - 15:00</v>
+      </c>
+      <c r="J32" t="str">
+        <v>Waiting</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="str">
+        <v>&lt;nil&gt;</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>heri</v>
+      </c>
+      <c r="B33" t="str">
+        <v>871342</v>
+      </c>
+      <c r="C33" t="str">
+        <v>laki-laki</v>
+      </c>
+      <c r="D33" t="str">
+        <v>kuningan</v>
+      </c>
+      <c r="E33" t="str">
+        <v>heri@mail.com</v>
+      </c>
+      <c r="F33" t="str">
+        <v>87234</v>
+      </c>
+      <c r="G33" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H33" t="str">
+        <v>E-Court</v>
+      </c>
+      <c r="I33" t="str">
+        <v>14:00 - 15:00</v>
+      </c>
+      <c r="J33" t="str">
+        <v>Waiting</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="str">
+        <v>&lt;nil&gt;</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>fifi</v>
+      </c>
+      <c r="B34" t="str">
+        <v>8617231</v>
+      </c>
+      <c r="C34" t="str">
+        <v>perempuan</v>
+      </c>
+      <c r="D34" t="str">
+        <v>mampang</v>
+      </c>
+      <c r="E34" t="str">
+        <v>fifi@mail.com</v>
+      </c>
+      <c r="F34" t="str">
+        <v>8973423</v>
+      </c>
+      <c r="G34" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H34" t="str">
+        <v>E-Court</v>
+      </c>
+      <c r="I34" t="str">
+        <v>14:00 - 15:00</v>
+      </c>
+      <c r="J34" t="str">
+        <v>On Progress</v>
+      </c>
+      <c r="K34">
+        <v>157</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="str">
+        <v>0000-01-01 16:37:00 +0000 UTC</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>zaki</v>
+      </c>
+      <c r="B35" t="str">
+        <v>35345</v>
+      </c>
+      <c r="C35" t="str">
+        <v>laki-laki</v>
+      </c>
+      <c r="D35" t="str">
+        <v>mampang</v>
+      </c>
+      <c r="E35" t="str">
+        <v>zaki@mail.com</v>
+      </c>
+      <c r="F35" t="str">
+        <v>8973423</v>
+      </c>
+      <c r="G35" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H35" t="str">
+        <v>E-Court</v>
+      </c>
+      <c r="I35" t="str">
+        <v>14:00 - 15:00</v>
+      </c>
+      <c r="J35" t="str">
+        <v>Done</v>
+      </c>
+      <c r="K35">
+        <v>22</v>
+      </c>
+      <c r="L35">
+        <v>135</v>
+      </c>
+      <c r="M35" t="str">
+        <v>0000-01-01 14:22:00 +0000 UTC</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>alex</v>
+      </c>
+      <c r="B36" t="str">
+        <v>871342</v>
+      </c>
+      <c r="C36" t="str">
+        <v>laki-laki</v>
+      </c>
+      <c r="D36" t="str">
+        <v>kuningan</v>
+      </c>
+      <c r="E36" t="str">
+        <v>heri@mail.com</v>
+      </c>
+      <c r="F36" t="str">
+        <v>87234</v>
+      </c>
+      <c r="G36" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H36" t="str">
+        <v>Pengaduan &amp; Infromasi</v>
+      </c>
+      <c r="I36" t="str">
+        <v>21:00 - 22:00</v>
+      </c>
+      <c r="J36" t="str">
+        <v>Done</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>-525723</v>
+      </c>
+      <c r="M36" t="str">
+        <v>&lt;nil&gt;</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>alvin</v>
+      </c>
+      <c r="B37" t="str">
+        <v>871342</v>
+      </c>
+      <c r="C37" t="str">
+        <v>laki-laki</v>
+      </c>
+      <c r="D37" t="str">
+        <v>kuningan</v>
+      </c>
+      <c r="E37" t="str">
+        <v>heri@mail.com</v>
+      </c>
+      <c r="F37" t="str">
+        <v>87234</v>
+      </c>
+      <c r="G37" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H37" t="str">
+        <v>Pengaduan &amp; Infromasi</v>
+      </c>
+      <c r="I37" t="str">
+        <v>21:00 - 22:00</v>
+      </c>
+      <c r="J37" t="str">
+        <v>Done</v>
+      </c>
+      <c r="K37">
+        <v>-525723</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37" t="str">
+        <v>0000-01-01 21:57:00 +0000 UTC</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>udin</v>
+      </c>
+      <c r="B38" t="str">
+        <v>871342</v>
+      </c>
+      <c r="C38" t="str">
+        <v>laki-laki</v>
+      </c>
+      <c r="D38" t="str">
+        <v>kuningan</v>
+      </c>
+      <c r="E38" t="str">
+        <v>heri@mail.com</v>
+      </c>
+      <c r="F38" t="str">
+        <v>87234</v>
+      </c>
+      <c r="G38" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H38" t="str">
+        <v>Pengaduan &amp; Infromasi</v>
+      </c>
+      <c r="I38" t="str">
+        <v>21:00 - 22:00</v>
+      </c>
+      <c r="J38" t="str">
+        <v>On Progress</v>
+      </c>
+      <c r="K38">
+        <v>-525716</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="str">
+        <v>0000-01-01 22:04:00 +0000 UTC</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>erwin</v>
+      </c>
+      <c r="B39" t="str">
+        <v>871342</v>
+      </c>
+      <c r="C39" t="str">
+        <v>laki-laki</v>
+      </c>
+      <c r="D39" t="str">
+        <v>kuningan</v>
+      </c>
+      <c r="E39" t="str">
+        <v>heri@mail.com</v>
+      </c>
+      <c r="F39" t="str">
+        <v>87234</v>
+      </c>
+      <c r="G39" t="str">
+        <v>2021-06-15T00:00:00Z</v>
+      </c>
+      <c r="H39" t="str">
+        <v>Pengaduan &amp; Infromasi</v>
+      </c>
+      <c r="I39" t="str">
+        <v>21:00 - 22:00</v>
+      </c>
+      <c r="J39" t="str">
+        <v>Done</v>
+      </c>
+      <c r="K39">
+        <v>-525718</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39" t="str">
+        <v>0000-01-01 22:02:00 +0000 UTC</v>
       </c>
     </row>
   </sheetData>
